--- a/output.xlsx
+++ b/output.xlsx
@@ -419,6 +419,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="27.83203125" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -689,6 +701,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:L8"/>
   </ignoredErrors>

--- a/output.xlsx
+++ b/output.xlsx
@@ -32,26 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="19">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0\ _₫_-;\-* #,##0.0\ _₫_-;_-* &quot;-&quot;?\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="172" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="173" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="&quot;Tp. Hồ Chí Minh, &quot;&quot; ngày &quot;dd&quot; tháng &quot;mm&quot; năm &quot;yyyy"/>
-    <numFmt numFmtId="176" formatCode="#,##0\ &quot;VNĐ&quot;"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="#\,##0.00[$€];[Red]\-#\,##0.00[$€]"/>
   </numFmts>
   <fonts count="1">
     <font>
